--- a/Todo - List Dragon Gold.xlsx
+++ b/Todo - List Dragon Gold.xlsx
@@ -9,21 +9,22 @@
   <sheets>
     <sheet name="Sep" sheetId="5" r:id="rId1"/>
     <sheet name="Ngan - HCNS" sheetId="1" r:id="rId2"/>
-    <sheet name="Vu - TDCSinh" sheetId="3" r:id="rId3"/>
+    <sheet name="Vu - TDCS" sheetId="3" r:id="rId3"/>
     <sheet name="Nha - KD" sheetId="4" r:id="rId4"/>
-    <sheet name="Thanh - Can bo tuyen dung" sheetId="8" r:id="rId5"/>
+    <sheet name="Thanh - CBTD" sheetId="8" r:id="rId5"/>
     <sheet name="Tuan - web" sheetId="6" r:id="rId6"/>
     <sheet name="Cong viec" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Cong viec'!$A$2:$F$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Cong viec'!$A$2:$G$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Tuan - web'!$A$2:$D$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="93">
   <si>
     <t>STT</t>
   </si>
@@ -175,9 +176,6 @@
     <t>Ưu tiên</t>
   </si>
   <si>
-    <t>Phân loại hình ảnh của công ty (xoá bỏ những tấm không cần thiết)</t>
-  </si>
-  <si>
     <t>5. Đồng nghiệp</t>
   </si>
   <si>
@@ -199,9 +197,6 @@
     <t>2. MXH</t>
   </si>
   <si>
-    <t>4. Học Thêm</t>
-  </si>
-  <si>
     <t>Triển Khai</t>
   </si>
   <si>
@@ -226,12 +221,6 @@
     <t>Đưa từ khoá tên doanh nghiệp lên top</t>
   </si>
   <si>
-    <t>Liên hệ với Minh để kiểm tra tình hình công việc</t>
-  </si>
-  <si>
-    <t>Liên hệ với 2 bạn sinh viên mà MM biết</t>
-  </si>
-  <si>
     <t>Liên hệ với bạn bè cũ</t>
   </si>
   <si>
@@ -256,12 +245,6 @@
     <t>Thêm thông tin sơ bộ về doanh nghiệp trong chuyên mục Doanh nghiệp</t>
   </si>
   <si>
-    <t>Thêm thông tin liên hệ với doanh nghiệp trong mục giới thiệu</t>
-  </si>
-  <si>
-    <t>Từ sau 10h và sau 3h chiều + buổi tối</t>
-  </si>
-  <si>
     <t>Khẩn cấp - Quan trọng</t>
   </si>
   <si>
@@ -271,19 +254,55 @@
     <t>Tìm trên FB với cú pháp "tìm việc làm", lọc nội dung ở cần thơ</t>
   </si>
   <si>
-    <t>Tìm group, fanpage, forum nào đó ở Cần Thơ hội tụ nhiều sinh viên thất nghiệp viết bài hay để thu hút các bạn đọc từ đó kiếm KH</t>
-  </si>
-  <si>
     <t>0. Tìm đầu vào</t>
   </si>
   <si>
-    <t>Phân loại mục tuyển dụng thành các chuyên mục con. VD: nhân viên kinh doanh</t>
-  </si>
-  <si>
     <t>Tăng uy tín của website với GG</t>
   </si>
   <si>
-    <t>3. Sắp xếp CV</t>
+    <t>Phân loại mục Tuyển Dụng thành các chuyên mục con. VD: nhân viên kinh doanh</t>
+  </si>
+  <si>
+    <t>Thêm avatar vào cái bài post của chuyên mục lĩnh vực hoạt động</t>
+  </si>
+  <si>
+    <t>Thêm cái bài post vào mục lĩnh vực hoạt động cho đủ 24 lĩnh vực hoạt động</t>
+  </si>
+  <si>
+    <t>Giá của sản phẩm (vd Macbook) nên để là 23.000.000 chứ không phải 23.000k</t>
+  </si>
+  <si>
+    <t>3. Học Thêm</t>
+  </si>
+  <si>
+    <t>Tìm group, fanpage, forum nào đó ở Cần Thơ hội tụ nhiều sinh viên thất nghiệp vào tương tác với các bạn từ đó kiếm KH</t>
+  </si>
+  <si>
+    <t>Kiếm người Tìm việc trên Chợ tốt</t>
+  </si>
+  <si>
+    <t>Cần bổ sung gấp vì mình đang tìm người.</t>
+  </si>
+  <si>
+    <t>Không Khẩn cấp - Quan trọng</t>
+  </si>
+  <si>
+    <t>Nhắn tin với anh Quân đang tìm việc trên Chợ tốt</t>
+  </si>
+  <si>
+    <t>Liên hệ với Minh HX để kiểm tra tình hình công việc hiện giờ của cậu ấy.</t>
+  </si>
+  <si>
+    <t>Liên hệ với 2 bạn sinh viên mà mẹ biết</t>
+  </si>
+  <si>
+    <t>Thêm thông tin Liên hệ với doanh nghiệp trong mục giới thiệu: thêm page liên hệ làm liên kết nội bộ</t>
+  </si>
+  <si>
+    <t>Chưa làm</t>
+  </si>
+  <si>
+    <t>Bổ sung mục các vị trí vào chuyên mục Khối ngành</t>
   </si>
 </sst>
 </file>
@@ -293,7 +312,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010409]d/m/yyyy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,12 +359,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -373,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -436,37 +449,77 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -813,9 +866,9 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="4"/>
@@ -827,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -917,10 +970,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
     </row>
@@ -930,10 +983,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
     </row>
@@ -1246,7 +1299,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -1552,7 +1605,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,7 +1633,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1592,18 +1645,22 @@
         <v>15</v>
       </c>
       <c r="C3" s="13"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>IF(B4="", "", SUBTOTAL(3,$B$3:B4))</f>
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -1611,12 +1668,12 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -1624,20 +1681,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f>IF(B7="", "", SUBTOTAL(3,$B$3:B7))</f>
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2"/>
@@ -1647,10 +1706,12 @@
         <f>IF(B8="", "", SUBTOTAL(3,$B$3:B8))</f>
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="13"/>
+      <c r="B8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1659,18 +1720,24 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="str">
+      <c r="A10" s="2">
         <f>IF(B10="", "", SUBTOTAL(3,$B$3:B10))</f>
-        <v/>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1797,6 +1864,11 @@
       <c r="E27" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:D2">
+    <sortState ref="A3:D14">
+      <sortCondition ref="D2"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1804,10 +1876,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1828,611 +1900,736 @@
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="27" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="28">
         <f>IF(B3="", "", SUBTOTAL(3,$B$3:B3))</f>
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="24">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>79</v>
+      <c r="B3" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="31">
+        <v>1</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="28">
         <f>IF(B4="", "", SUBTOTAL(3,$B$3:B4))</f>
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="24">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>79</v>
+      <c r="B4" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="31">
+        <v>1</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="28">
         <f>IF(B5="", "", SUBTOTAL(3,$B$3:B5))</f>
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="24">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>79</v>
+      <c r="B5" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="31">
+        <v>1</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="28">
         <f>IF(B6="", "", SUBTOTAL(3,$B$3:B6))</f>
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="24" t="s">
+      <c r="B6" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="24">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="E6" s="31">
+        <v>1</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
         <f>IF(B7="", "", SUBTOTAL(3,$B$3:B7))</f>
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="31">
+        <v>1</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <f>IF(B8="", "", SUBTOTAL(3,$B$3:B8))</f>
+        <v>6</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="31">
+        <v>1</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
+        <f>IF(B9="", "", SUBTOTAL(3,$B$3:B9))</f>
+        <v>7</v>
+      </c>
+      <c r="B9" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <f>IF(B9="", "", SUBTOTAL(3,$B$3:B9))</f>
-        <v>6</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="24">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <f>IF(B10="", "", SUBTOTAL(3,$B$3:B10))</f>
-        <v>7</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="24">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="C9" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+    </row>
+    <row r="11" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
         <f>IF(B11="", "", SUBTOTAL(3,$B$3:B11))</f>
         <v>8</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="24">
-        <v>2</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="E11" s="31">
+        <v>1</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
         <f>IF(B12="", "", SUBTOTAL(3,$B$3:B12))</f>
         <v>9</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="24">
-        <v>1</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <f>IF(B13="", "", SUBTOTAL(3,$B$3:B13))</f>
-        <v>10</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="E12" s="31">
+        <v>1</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28">
         <f>IF(B14="", "", SUBTOTAL(3,$B$3:B14))</f>
         <v>11</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="22" t="s">
+      <c r="B13" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="D13" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="31">
+        <v>1</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28">
         <f>IF(B15="", "", SUBTOTAL(3,$B$3:B15))</f>
         <v>12</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="22" t="s">
+      <c r="B14" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="D14" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="31">
+        <v>1</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+    </row>
+    <row r="15" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
+        <f>IF(B13="", "", SUBTOTAL(3,$B$3:B15))</f>
+        <v>12</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="31">
+        <v>1</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28">
         <f>IF(B16="", "", SUBTOTAL(3,$B$3:B16))</f>
         <v>13</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="22" t="s">
+      <c r="B16" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="D16" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="31">
+        <v>1</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28">
+        <f>IF(B17="", "", SUBTOTAL(3,$B$3:B17))</f>
+        <v>14</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="31"/>
       <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
         <f>IF(B18="", "", SUBTOTAL(3,$B$3:B18))</f>
-        <v>14</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="32"/>
+    </row>
+    <row r="19" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
         <f>IF(B19="", "", SUBTOTAL(3,$B$3:B19))</f>
-        <v>15</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+        <v>16</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="32"/>
+    </row>
+    <row r="20" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28">
         <f>IF(B20="", "", SUBTOTAL(3,$B$3:B20))</f>
-        <v>16</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+        <v>17</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="32"/>
+    </row>
+    <row r="21" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="28">
         <f>IF(B21="", "", SUBTOTAL(3,$B$3:B21))</f>
-        <v>17</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <f>IF(B22="", "", SUBTOTAL(3,$B$3:B22))</f>
         <v>18</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="B21" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="32"/>
+    </row>
+    <row r="22" spans="1:7" s="43" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+    </row>
+    <row r="23" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28">
         <f>IF(B23="", "", SUBTOTAL(3,$B$3:B23))</f>
         <v>19</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="1"/>
+      <c r="B23" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="36"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="28">
         <f>IF(B24="", "", SUBTOTAL(3,$B$3:B24))</f>
         <v>20</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
+      <c r="D24" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="37"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28">
+        <f>IF(B25="", "", SUBTOTAL(3,$B$3:B25))</f>
+        <v>21</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="37"/>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="28">
         <f>IF(B26="", "", SUBTOTAL(3,$B$3:B26))</f>
-        <v>21</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27" s="28">
         <f>IF(B27="", "", SUBTOTAL(3,$B$3:B27))</f>
-        <v>22</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+        <v>23</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="37"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+    </row>
+    <row r="28" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="28">
         <f>IF(B28="", "", SUBTOTAL(3,$B$3:B28))</f>
-        <v>23</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29" s="28">
         <f>IF(B29="", "", SUBTOTAL(3,$B$3:B29))</f>
-        <v>24</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <f>IF(B30="", "", SUBTOTAL(3,$B$3:B30))</f>
         <v>25</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="B29" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+    </row>
+    <row r="30" spans="1:7" s="24" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="40"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="str">
+      <c r="A31" s="28">
         <f>IF(B31="", "", SUBTOTAL(3,$B$3:B31))</f>
-        <v/>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="31"/>
+      <c r="F31" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="34"/>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="28">
         <f>IF(B32="", "", SUBTOTAL(3,$B$3:B32))</f>
-        <v>26</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="str">
+        <v>27</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="31"/>
+      <c r="F32" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="34"/>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="28">
         <f>IF(B33="", "", SUBTOTAL(3,$B$3:B33))</f>
-        <v/>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="str">
+        <v>28</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="31"/>
+      <c r="F33" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="34"/>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="28">
         <f>IF(B34="", "", SUBTOTAL(3,$B$3:B34))</f>
-        <v/>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="str">
+        <v>29</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="31"/>
+      <c r="F34" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="34"/>
+    </row>
+    <row r="35" spans="1:7" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="44" t="str">
         <f>IF(B35="", "", SUBTOTAL(3,$B$3:B35))</f>
         <v/>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="str">
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="45"/>
+    </row>
+    <row r="36" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="28">
         <f>IF(B36="", "", SUBTOTAL(3,$B$3:B36))</f>
-        <v/>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="34"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="str">
         <f>IF(B37="", "", SUBTOTAL(3,$B$3:B37))</f>
         <v/>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-    </row>
-    <row r="38" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-    </row>
-    <row r="39" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-    </row>
-    <row r="40" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="str">
+        <f>IF(B38="", "", SUBTOTAL(3,$B$3:B38))</f>
+        <v/>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="str">
+        <f>IF(B39="", "", SUBTOTAL(3,$B$3:B39))</f>
+        <v/>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="str">
+        <f>IF(B40="", "", SUBTOTAL(3,$B$3:B40))</f>
+        <v/>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="str">
+        <f>IF(B41="", "", SUBTOTAL(3,$B$3:B41))</f>
+        <v/>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A2:F37">
-    <sortState ref="A3:F31">
-      <sortCondition ref="E2:E31"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A2:G41"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Todo - List Dragon Gold.xlsx
+++ b/Todo - List Dragon Gold.xlsx
@@ -10,21 +10,22 @@
     <sheet name="Sep" sheetId="5" r:id="rId1"/>
     <sheet name="Ngan - HCNS" sheetId="1" r:id="rId2"/>
     <sheet name="Vu - TDCS" sheetId="3" r:id="rId3"/>
-    <sheet name="Nha - KD" sheetId="4" r:id="rId4"/>
-    <sheet name="Thanh - CBTD" sheetId="8" r:id="rId5"/>
+    <sheet name="Thanh - CBTD" sheetId="8" r:id="rId4"/>
+    <sheet name="Huyen - Doi Ngoai" sheetId="9" r:id="rId5"/>
     <sheet name="Tuan - web" sheetId="6" r:id="rId6"/>
     <sheet name="Cong viec" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Cong viec'!$A$2:$G$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Tuan - web'!$A$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Cong viec'!$A$2:$G$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sep!$A$2:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Tuan - web'!$A$2:$D$14</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="105">
   <si>
     <t>STT</t>
   </si>
@@ -44,15 +45,9 @@
     <t>Công việc gửi Ngân - Phòng HCNS</t>
   </si>
   <si>
-    <t>Công việc gửi anh Khoa - Tổng giám đốc</t>
-  </si>
-  <si>
     <t>Nội dung mô tả phần Doanh nghiệp bạn nào sẽ gửi cho em?</t>
   </si>
   <si>
-    <t>Công việc gửi Nhã - Phòng Kinh doanh</t>
-  </si>
-  <si>
     <t>Ký bảng hợp đồng SSL và bộ công thương</t>
   </si>
   <si>
@@ -80,9 +75,6 @@
     <t>Homepage =&gt; Section Lĩnh vực hoạt động =&gt; phần mô tả mỗi bài post chỉ hiển thị mỗi dòng "Mô tả bán buôn …"</t>
   </si>
   <si>
-    <t>Menu Sản phẩm hàng hoá khi bấm vào trên tab vẫn còn chữ lưu trữ.</t>
-  </si>
-  <si>
     <t>Homepage =&gt; Sản phẩm hàng hoá. Bỏ danh mục chưa phân loại</t>
   </si>
   <si>
@@ -92,9 +84,6 @@
     <t>Cứ để trống những phần này</t>
   </si>
   <si>
-    <t>Cung cấp hình ảnh doanh nghiệp, nội dung tuyển dụng, địa điểm làm việc, mức lương, thông tin sơ bộ về đối tác</t>
-  </si>
-  <si>
     <t>Cung cấp file thiết kế bảng của doanh nghiệp</t>
   </si>
   <si>
@@ -128,9 +117,6 @@
     <t>Kiểu công việc</t>
   </si>
   <si>
-    <t>1. Website</t>
-  </si>
-  <si>
     <t>Thiết kế dùm chị Thanh bảng thông tin tuyển dụng. Đọc trong Gmail</t>
   </si>
   <si>
@@ -140,15 +126,6 @@
     <t>Công việc gửi chị Thanh - Cán bộ tuyển dụng</t>
   </si>
   <si>
-    <t>Đang nhắc</t>
-  </si>
-  <si>
-    <t>Cung cấp thông tin sơ bộ ngành xuất nhập khẩu: sản phẩm.</t>
-  </si>
-  <si>
-    <t>Cung cấp thông tin sơ bộ ngành may công nghiệp: quy mô, lĩnh vực …</t>
-  </si>
-  <si>
     <t>Lập Account Twitter</t>
   </si>
   <si>
@@ -167,12 +144,6 @@
     <t>Đưa mã gtag.js vào trang web</t>
   </si>
   <si>
-    <t>Click menu Sản phẩm hàng hoá hiển thị dấu - thay vì hiển thị dấu &amp;</t>
-  </si>
-  <si>
-    <t>Cung cấp thông tin sơ bộ ngành bất động sản: chưa biết sẽ bao gồm những thuộc tính gì.</t>
-  </si>
-  <si>
     <t>Ưu tiên</t>
   </si>
   <si>
@@ -206,27 +177,15 @@
     <t>Hỏi Sếp vụ anh Nam - Andes</t>
   </si>
   <si>
-    <t>Làm thanh search trên Mobile</t>
-  </si>
-  <si>
     <t>Bổ sung các thông tin mà Vụ gửi lên mục tuyển dụng</t>
   </si>
   <si>
-    <t>Nói với Sếp trong Gmail đang có tin nhắn của khách</t>
-  </si>
-  <si>
     <t>Xong 1, còn 3 DN: BĐS, Xuất Nhập Khẩu, May công nghiệp</t>
   </si>
   <si>
     <t>Đưa từ khoá tên doanh nghiệp lên top</t>
   </si>
   <si>
-    <t>Liên hệ với bạn bè cũ</t>
-  </si>
-  <si>
-    <t>Đưa website DN lên top 10 khi search từ "việc làm cần thơ", "tuyển dụng cần thơ"</t>
-  </si>
-  <si>
     <t>Học Google Analytics</t>
   </si>
   <si>
@@ -260,15 +219,6 @@
     <t>Tăng uy tín của website với GG</t>
   </si>
   <si>
-    <t>Phân loại mục Tuyển Dụng thành các chuyên mục con. VD: nhân viên kinh doanh</t>
-  </si>
-  <si>
-    <t>Thêm avatar vào cái bài post của chuyên mục lĩnh vực hoạt động</t>
-  </si>
-  <si>
-    <t>Thêm cái bài post vào mục lĩnh vực hoạt động cho đủ 24 lĩnh vực hoạt động</t>
-  </si>
-  <si>
     <t>Giá của sản phẩm (vd Macbook) nên để là 23.000.000 chứ không phải 23.000k</t>
   </si>
   <si>
@@ -278,9 +228,6 @@
     <t>Tìm group, fanpage, forum nào đó ở Cần Thơ hội tụ nhiều sinh viên thất nghiệp vào tương tác với các bạn từ đó kiếm KH</t>
   </si>
   <si>
-    <t>Kiếm người Tìm việc trên Chợ tốt</t>
-  </si>
-  <si>
     <t>Cần bổ sung gấp vì mình đang tìm người.</t>
   </si>
   <si>
@@ -302,7 +249,104 @@
     <t>Chưa làm</t>
   </si>
   <si>
-    <t>Bổ sung mục các vị trí vào chuyên mục Khối ngành</t>
+    <t>1. Marketing</t>
+  </si>
+  <si>
+    <t>Làm thanh search trên Mobile, bấm chữ được nhưng bấm nút search không ra</t>
+  </si>
+  <si>
+    <t>Menu Sản phẩm hàng hoá khi bấm vào trên tab vẫn còn chữ LƯU TRỮ.</t>
+  </si>
+  <si>
+    <t>Ít người tìm</t>
+  </si>
+  <si>
+    <t>Mỗi buổi 1 tin: 3 tin/ ngày</t>
+  </si>
+  <si>
+    <t>Thêm cái bài post vào mục lĩnh vực hoạt động trên homepage cho đủ 24 lĩnh vực hoạt động</t>
+  </si>
+  <si>
+    <t>Phân loại mục Tuyển Dụng thành các chuyên mục con cho phù hợp với 15 nhóm ngành nghề của công ty</t>
+  </si>
+  <si>
+    <t>Làm vào buổi sáng</t>
+  </si>
+  <si>
+    <t>Đọc và thực hành theo bài 33 bước SEO trên GG Analytics</t>
+  </si>
+  <si>
+    <t>Bấm vào một sản phẩm cụ thể, title của tab không có tên công ty phía sau tên sản phẩm, chỉ có mỗi dấu "-"</t>
+  </si>
+  <si>
+    <t>2. Website</t>
+  </si>
+  <si>
+    <t>SEO tên doanh nghiệp lên top</t>
+  </si>
+  <si>
+    <t>Bổ sung mục các vị trí trên tấm bảng ngoài công ty vào nội dung của chuyên mục Khối ngành</t>
+  </si>
+  <si>
+    <t>SEO website công ty khi serch chữ "việc làm cần thơ"</t>
+  </si>
+  <si>
+    <t>Kiếm người Tìm việc trên Chợ tốt: ưu tiên
+NVKD: XNK, BĐS, Sơn, VLXD
+Kế toán: VLXD
+Trình dược:
+KT trưởng, CV Marketing, thiết kế 3D: BĐS</t>
+  </si>
+  <si>
+    <t>Kiến nghị mua tripod điện thoại</t>
+  </si>
+  <si>
+    <t>Tạo Kênh</t>
+  </si>
+  <si>
+    <t>Video của các bạn khi đi làm được 1 tháng quay về cty</t>
+  </si>
+  <si>
+    <t>Công việc gửi Sếp - Tổng giám đốc</t>
+  </si>
+  <si>
+    <t>Đăng video lên youtube của mình</t>
+  </si>
+  <si>
+    <t>Đăng clip lên fanpage</t>
+  </si>
+  <si>
+    <t>Share clip lên fb của mình</t>
+  </si>
+  <si>
+    <t>Thêm một Section và Homepage của trang web: Cảm nghĩ học viên</t>
+  </si>
+  <si>
+    <t>Hội thảo của chúng ta tên gì?</t>
+  </si>
+  <si>
+    <t>Tên của 2 bạn học viên còn lại</t>
+  </si>
+  <si>
+    <t>Mỹ Hạnh - Mỹ Ái</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Tạo bài viết mới trên website cảm nhận học viên bằng video</t>
+  </si>
+  <si>
+    <t>Tạo Kênh Youtube cho công ty</t>
+  </si>
+  <si>
+    <t>Đăng tin tuyển dụng trên FB cá nhân, fanpage công ty
+- Chỉnh lại tin đăng trên web
+- Viết tin đăng ra word
+- Đăng tin lên FB</t>
+  </si>
+  <si>
+    <t>Thêm kênh Youtube vào footer trang web</t>
   </si>
 </sst>
 </file>
@@ -312,7 +356,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010409]d/m/yyyy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,6 +403,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -383,10 +434,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -505,25 +557,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -823,10 +869,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D5" sqref="D5:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,16 +881,16 @@
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
     <col min="2" max="2" width="90.85546875" customWidth="1"/>
     <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -851,184 +898,261 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(B3="", "", SUBTOTAL(3,$B3:B$3))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(B4="", "", SUBTOTAL(3,$B$3:B4))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="44"/>
+    </row>
+    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(B5="", "", SUBTOTAL(3,$B$3:B5))</f>
-        <v>3</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="20"/>
-    </row>
-    <row r="6" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="44"/>
+    </row>
+    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(B6="", "", SUBTOTAL(3,$B$3:B6))</f>
-        <v>4</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="44"/>
+    </row>
+    <row r="7" spans="1:6" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(B7="", "", SUBTOTAL(3,$B$3:B7))</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="20"/>
-    </row>
-    <row r="8" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:6" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(B8="", "", SUBTOTAL(3,$B$3:B8))</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(B9="", "", SUBTOTAL(3,$B$3:B9))</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>7</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="20"/>
-    </row>
-    <row r="10" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(B10="", "", SUBTOTAL(3,$B$3:B10))</f>
+        <v>2</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="20"/>
-    </row>
-    <row r="11" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(B11="", "", SUBTOTAL(3,$B$3:B11))</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(B12="", "", SUBTOTAL(3,$B$3:B12))</f>
+        <v>2</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>53</v>
-      </c>
       <c r="C12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="20"/>
-    </row>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <f>IF(B13="", "", SUBTOTAL(3,$B$3:B13))</f>
+        <v>2</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <f>IF(B14="", "", SUBTOTAL(3,$B$3:B14))</f>
+        <v>2</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <f>IF(B15="", "", SUBTOTAL(3,$B$3:B15))</f>
+        <v>3</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <f>IF(B16="", "", SUBTOTAL(3,$B$3:B16))</f>
+        <v>4</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="7" t="str">
+        <f>IF(B17="", "", SUBTOTAL(3,$B$3:B17))</f>
+        <v/>
+      </c>
       <c r="B17" s="12"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="7" t="str">
+        <f>IF(B18="", "", SUBTOTAL(3,$B$3:B18))</f>
+        <v/>
+      </c>
       <c r="B18" s="12"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="12"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1055,47 +1179,52 @@
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="7"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="2"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="17"/>
-      <c r="E26" s="2"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="17"/>
-      <c r="E27" s="1"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="17"/>
-      <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="17"/>
     </row>
     <row r="30" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="17"/>
     </row>
     <row r="31" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="14"/>
@@ -1118,10 +1247,10 @@
     <row r="37" spans="2:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="14"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="14"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="14"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
@@ -1136,7 +1265,20 @@
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="14"/>
     </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="14"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="14"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A2:F14">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Đang làm"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1177,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1290,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -1299,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -1366,107 +1508,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <f>IF(B3="", "", SUBTOTAL(3,$B$3:B3))</f>
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <f>IF(B4="", "", SUBTOTAL(3,$B$3:B4))</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <f>IF(B5="", "", SUBTOTAL(3,$B$3:B5))</f>
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <f>IF(B6="", "", SUBTOTAL(3,$B$3:B6))</f>
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="str">
-        <f>IF(B7="", "", SUBTOTAL(3,$B$3:B7))</f>
-        <v/>
-      </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="str">
-        <f>IF(B8="", "", SUBTOTAL(3,$B$3:B8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="str">
-        <f>IF(B9="", "", SUBTOTAL(3,$B$3:B9))</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,7 +1523,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C1" s="4"/>
     </row>
@@ -1490,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>2</v>
@@ -1595,6 +1640,120 @@
     <row r="17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f>IF(B3="", "", SUBTOTAL(3,$B$3:B3))</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="str">
+        <f>IF(B4="", "", SUBTOTAL(3,$B$3:B4))</f>
+        <v/>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="str">
+        <f>IF(B5="", "", SUBTOTAL(3,$B$3:B5))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="str">
+        <f>IF(B6="", "", SUBTOTAL(3,$B$3:B6))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="str">
+        <f>IF(B7="", "", SUBTOTAL(3,$B$3:B7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="str">
+        <f>IF(B8="", "", SUBTOTAL(3,$B$3:B8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="str">
+        <f>IF(B9="", "", SUBTOTAL(3,$B$3:B9))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="str">
+        <f>IF(B10="", "", SUBTOTAL(3,$B$3:B10))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="str">
+        <f>IF(B11="", "", SUBTOTAL(3,$B$3:B11))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="str">
+        <f>IF(B12="", "", SUBTOTAL(3,$B$3:B12))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="str">
+        <f>IF(B13="", "", SUBTOTAL(3,$B$3:B13))</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1605,12 +1764,12 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="89" customWidth="1"/>
+    <col min="2" max="2" width="94.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -1630,10 +1789,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1642,9 +1801,11 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="13"/>
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
@@ -1655,9 +1816,11 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
@@ -1668,9 +1831,11 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>83</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
@@ -1681,9 +1846,11 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
@@ -1694,10 +1861,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -1707,10 +1874,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -1720,10 +1887,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -1733,10 +1900,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -1864,11 +2031,7 @@
       <c r="E27" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D2">
-    <sortState ref="A3:D14">
-      <sortCondition ref="D2"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A2:D14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1876,10 +2039,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1887,19 +2051,19 @@
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="80.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
@@ -1907,729 +2071,849 @@
         <v>1</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <f>IF(B3="", "", SUBTOTAL(3,$B$3:B3))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="E3" s="31">
         <v>1</v>
       </c>
-      <c r="F3" s="32"/>
+      <c r="F3" s="32" t="s">
+        <v>77</v>
+      </c>
       <c r="G3" s="32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <f>IF(B4="", "", SUBTOTAL(3,$B$3:B4))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="E4" s="31">
         <v>1</v>
       </c>
       <c r="F4" s="32"/>
       <c r="G4" s="32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <f>IF(B5="", "", SUBTOTAL(3,$B$3:B5))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="E5" s="31">
         <v>1</v>
       </c>
-      <c r="F5" s="32"/>
+      <c r="F5" s="32" t="s">
+        <v>78</v>
+      </c>
       <c r="G5" s="32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <f>IF(B6="", "", SUBTOTAL(3,$B$3:B6))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E6" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <f>IF(B7="", "", SUBTOTAL(3,$B$3:B7))</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="E7" s="31">
         <v>1</v>
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="42" customFormat="1" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <f>IF(B8="", "", SUBTOTAL(3,$B$3:B8))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="E8" s="31">
         <v>1</v>
       </c>
       <c r="F8" s="32"/>
       <c r="G8" s="32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" s="24" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <f>IF(B9="", "", SUBTOTAL(3,$B$3:B9))</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="32"/>
       <c r="G9" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="24" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
+        <f>IF(B10="", "", SUBTOTAL(3,$B$3:B10))</f>
+        <v>2</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-    </row>
-    <row r="11" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="24" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <f>IF(B11="", "", SUBTOTAL(3,$B$3:B11))</f>
+        <v>2</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="31">
-        <v>1</v>
-      </c>
-      <c r="F11" s="32"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="24" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <f>IF(B12="", "", SUBTOTAL(3,$B$3:B12))</f>
-        <v>9</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>36</v>
+        <v>2</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>95</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="31">
-        <v>1</v>
-      </c>
-      <c r="F12" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="24" customFormat="1" ht="2.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
-        <f>IF(B14="", "", SUBTOTAL(3,$B$3:B14))</f>
-        <v>11</v>
+        <f>IF(B13="", "", SUBTOTAL(3,$B$3:B13))</f>
+        <v>2</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E13" s="31">
         <v>1</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="29"/>
+      <c r="G13" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="24" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28">
+        <f>IF(B14="", "", SUBTOTAL(3,$B$3:B14))</f>
+        <v>3</v>
+      </c>
+      <c r="B14" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="C14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="31">
+        <v>3</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="24" customFormat="1" ht="85.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
+        <f>IF(B15="", "", SUBTOTAL(3,$B$3:B15))</f>
+        <v>3</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="43" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
-        <f>IF(B15="", "", SUBTOTAL(3,$B$3:B15))</f>
-        <v>12</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="31">
-        <v>1</v>
-      </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-    </row>
-    <row r="15" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
-        <f>IF(B13="", "", SUBTOTAL(3,$B$3:B15))</f>
-        <v>12</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="31">
-        <v>1</v>
-      </c>
-      <c r="F15" s="34"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <f>IF(B16="", "", SUBTOTAL(3,$B$3:B16))</f>
-        <v>13</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>74</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="31">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E16" s="31"/>
       <c r="F16" s="29"/>
-      <c r="G16" s="32"/>
-    </row>
-    <row r="17" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <f>IF(B17="", "", SUBTOTAL(3,$B$3:B17))</f>
-        <v>14</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>74</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="E17" s="31"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="32"/>
-    </row>
-    <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="32"/>
+      <c r="G17" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <f>IF(B18="", "", SUBTOTAL(3,$B$3:B18))</f>
-        <v>15</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="29" t="s">
-        <v>63</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="32"/>
     </row>
-    <row r="19" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <f>IF(B19="", "", SUBTOTAL(3,$B$3:B19))</f>
-        <v>16</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="35" t="s">
         <v>34</v>
       </c>
+      <c r="C19" s="35" t="s">
+        <v>46</v>
+      </c>
       <c r="D19" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="29"/>
+        <v>73</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="32"/>
     </row>
-    <row r="20" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <f>IF(B20="", "", SUBTOTAL(3,$B$3:B20))</f>
-        <v>17</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="29"/>
+        <v>73</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="32"/>
     </row>
-    <row r="21" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <f>IF(B21="", "", SUBTOTAL(3,$B$3:B21))</f>
-        <v>18</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="29"/>
+        <v>73</v>
+      </c>
+      <c r="E21" s="37"/>
+      <c r="F21" s="32"/>
       <c r="G21" s="32"/>
     </row>
-    <row r="22" spans="1:7" s="43" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-    </row>
-    <row r="23" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28">
+        <f>IF(B22="", "", SUBTOTAL(3,$B$3:B22))</f>
+        <v>3</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="37"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+    </row>
+    <row r="23" spans="1:7" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <f>IF(B23="", "", SUBTOTAL(3,$B$3:B23))</f>
-        <v>19</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>56</v>
+        <v>3</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="E23" s="31">
+        <v>1</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <f>IF(B24="", "", SUBTOTAL(3,$B$3:B24))</f>
-        <v>20</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>56</v>
+        <v>3</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-    </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="E24" s="31">
+        <v>1</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <f>IF(B25="", "", SUBTOTAL(3,$B$3:B25))</f>
-        <v>21</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>56</v>
+        <v>3</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-    </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="E25" s="31">
+        <v>1</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <f>IF(B26="", "", SUBTOTAL(3,$B$3:B26))</f>
-        <v>22</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>56</v>
+        <v>4</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="37"/>
+        <v>25</v>
+      </c>
+      <c r="E26" s="31">
+        <v>1</v>
+      </c>
       <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-    </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <f>IF(B27="", "", SUBTOTAL(3,$B$3:B27))</f>
-        <v>23</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>56</v>
+        <v>5</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="37"/>
+        <v>25</v>
+      </c>
+      <c r="E27" s="31">
+        <v>1</v>
+      </c>
       <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-    </row>
-    <row r="28" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="42" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28">
-        <f>IF(B28="", "", SUBTOTAL(3,$B$3:B28))</f>
-        <v>24</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>56</v>
+        <f>IF(B29="", "", SUBTOTAL(3,$B$3:B29))</f>
+        <v>6</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="E28" s="31"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="32"/>
-    </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <f>IF(B29="", "", SUBTOTAL(3,$B$3:B29))</f>
-        <v>25</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>56</v>
+        <v>6</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
+      <c r="F29" s="29"/>
       <c r="G29" s="32"/>
     </row>
-    <row r="30" spans="1:7" s="24" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
+    <row r="30" spans="1:7" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="28">
+        <f>IF(B30="", "", SUBTOTAL(3,$B$3:B30))</f>
+        <v>6</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>84</v>
+      </c>
       <c r="D30" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-    </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="E30" s="31"/>
+      <c r="F30" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="32"/>
+    </row>
+    <row r="31" spans="1:7" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
         <f>IF(B31="", "", SUBTOTAL(3,$B$3:B31))</f>
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="E31" s="31"/>
-      <c r="F31" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="34"/>
-    </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="29"/>
+      <c r="G31" s="32"/>
+    </row>
+    <row r="32" spans="1:7" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28">
         <f>IF(B32="", "", SUBTOTAL(3,$B$3:B32))</f>
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="E32" s="31"/>
-      <c r="F32" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" s="34"/>
-    </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28">
-        <f>IF(B33="", "", SUBTOTAL(3,$B$3:B33))</f>
-        <v>28</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>70</v>
+      <c r="F32" s="29"/>
+      <c r="G32" s="32"/>
+    </row>
+    <row r="33" spans="1:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="28"/>
+      <c r="B33" s="29" t="s">
+        <v>104</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="E33" s="31"/>
-      <c r="F33" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" s="34"/>
-    </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="32"/>
+      <c r="G33" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28">
-        <f>IF(B34="", "", SUBTOTAL(3,$B$3:B34))</f>
-        <v>29</v>
-      </c>
-      <c r="B34" s="33" t="s">
+        <f>IF(B31="", "", SUBTOTAL(3,$B$3:B34))</f>
+        <v>6</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="31"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="28">
+        <f>IF(B35="", "", SUBTOTAL(3,$B$3:B35))</f>
+        <v>7</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="31"/>
+      <c r="F35" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" s="34"/>
-    </row>
-    <row r="35" spans="1:7" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="str">
-        <f>IF(B35="", "", SUBTOTAL(3,$B$3:B35))</f>
-        <v/>
-      </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="45"/>
-    </row>
-    <row r="36" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28">
         <f>IF(B36="", "", SUBTOTAL(3,$B$3:B36))</f>
+        <v>7</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="34"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="28">
+        <f>IF(B37="", "", SUBTOTAL(3,$B$3:B37))</f>
+        <v>7</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="31"/>
+      <c r="F37" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="34"/>
+    </row>
+    <row r="38" spans="1:7" s="24" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="28">
+        <f>IF(B38="", "", SUBTOTAL(3,$B$3:B38))</f>
+        <v>7</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="31"/>
+      <c r="F38" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="34"/>
+    </row>
+    <row r="39" spans="1:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="28">
+        <f>IF(B39="", "", SUBTOTAL(3,$B$3:B39))</f>
+        <v>7</v>
+      </c>
+      <c r="B39" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="34"/>
-    </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="str">
-        <f>IF(B37="", "", SUBTOTAL(3,$B$3:B37))</f>
-        <v/>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="str">
-        <f>IF(B38="", "", SUBTOTAL(3,$B$3:B38))</f>
-        <v/>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="str">
-        <f>IF(B39="", "", SUBTOTAL(3,$B$3:B39))</f>
-        <v/>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="str">
-        <f>IF(B40="", "", SUBTOTAL(3,$B$3:B40))</f>
-        <v/>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="str">
-        <f>IF(B41="", "", SUBTOTAL(3,$B$3:B41))</f>
-        <v/>
-      </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-    </row>
-    <row r="42" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="31"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="34"/>
+    </row>
+    <row r="40" spans="1:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="38"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+    </row>
+    <row r="41" spans="1:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="28"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+    </row>
+    <row r="42" spans="1:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="str">
+        <f>IF(B42="", "", SUBTOTAL(3,$B$3:B42))</f>
+        <v/>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
-    </row>
-    <row r="43" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="str">
+        <f>IF(B43="", "", SUBTOTAL(3,$B$3:B43))</f>
+        <v/>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
-    </row>
-    <row r="44" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="str">
+        <f>IF(B44="", "", SUBTOTAL(3,$B$3:B44))</f>
+        <v/>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+    </row>
     <row r="46" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A2:G41"/>
+  <autoFilter ref="A2:G44">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Đang làm"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A3:G45">
+      <sortCondition ref="C2:C45"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Todo - List Dragon Gold.xlsx
+++ b/Todo - List Dragon Gold.xlsx
@@ -8,27 +8,30 @@
   </bookViews>
   <sheets>
     <sheet name="Sep" sheetId="5" r:id="rId1"/>
-    <sheet name="Ngan - HCNS" sheetId="1" r:id="rId2"/>
-    <sheet name="Vu - TDCS" sheetId="3" r:id="rId3"/>
-    <sheet name="Tuan - web" sheetId="6" r:id="rId4"/>
+    <sheet name="Hoi dong nghiep" sheetId="1" r:id="rId2"/>
+    <sheet name="Tuan - web" sheetId="6" r:id="rId3"/>
+    <sheet name="Tim hoc vien" sheetId="16" r:id="rId4"/>
     <sheet name="Website" sheetId="10" r:id="rId5"/>
-    <sheet name="Tim hoc vien" sheetId="16" r:id="rId6"/>
-    <sheet name="Marketing" sheetId="14" r:id="rId7"/>
-    <sheet name="Day hoc" sheetId="15" r:id="rId8"/>
-    <sheet name="Học thêm" sheetId="17" r:id="rId9"/>
+    <sheet name="Marketing" sheetId="14" r:id="rId6"/>
+    <sheet name="Day hoc" sheetId="15" r:id="rId7"/>
+    <sheet name="Học thêm" sheetId="17" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Học thêm'!$A$1:$C$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sep!$A$2:$F$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Tuan - web'!$A$2:$C$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Website!$A$1:$F$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Day hoc'!$A$1:$G$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Học thêm'!$A$1:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Hoi dong nghiep'!$A$2:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Marketing!$A$1:$F$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sep!$A$2:$F$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Tim hoc vien'!$A$1:$D$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Tuan - web'!$A$2:$C$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Website!$A$1:$F$24</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="88">
   <si>
     <t>STT</t>
   </si>
@@ -42,9 +45,6 @@
     <t>Câu hỏi gửi Tuấn - công ty web Toàn Năng</t>
   </si>
   <si>
-    <t>Công việc gửi Vụ - Phòng tuyển dụng chiêu sinh</t>
-  </si>
-  <si>
     <t>Công việc gửi Ngân - Phòng HCNS</t>
   </si>
   <si>
@@ -114,9 +114,6 @@
     <t>Kiểu công việc</t>
   </si>
   <si>
-    <t>Kiểm tra xem Tuấn nhắc kỹ thuật đã làm hết chưa? Deadline là 21/9/2018</t>
-  </si>
-  <si>
     <t>Đưa mã gtag.js vào trang web</t>
   </si>
   <si>
@@ -168,18 +165,12 @@
     <t>Không khẩn cấp - Quan trọng</t>
   </si>
   <si>
-    <t>0. Tìm đầu vào</t>
-  </si>
-  <si>
     <t>Giá của sản phẩm (vd Macbook) nên để là 23.000.000 chứ không phải 23.000k</t>
   </si>
   <si>
     <t>Không Khẩn cấp - Quan trọng</t>
   </si>
   <si>
-    <t>Thêm thông tin Liên hệ với doanh nghiệp trong mục giới thiệu: thêm page liên hệ làm liên kết nội bộ</t>
-  </si>
-  <si>
     <t>Chưa làm</t>
   </si>
   <si>
@@ -189,15 +180,6 @@
     <t>Menu Sản phẩm hàng hoá khi bấm vào trên tab vẫn còn chữ LƯU TRỮ.</t>
   </si>
   <si>
-    <t>Mỗi buổi 1 tin: 3 tin/ ngày</t>
-  </si>
-  <si>
-    <t>Thêm cái bài post vào mục lĩnh vực hoạt động trên homepage cho đủ 24 lĩnh vực hoạt động</t>
-  </si>
-  <si>
-    <t>Phân loại mục Tuyển Dụng thành các chuyên mục con cho phù hợp với 15 nhóm ngành nghề của công ty</t>
-  </si>
-  <si>
     <t>Làm vào buổi sáng</t>
   </si>
   <si>
@@ -234,70 +216,16 @@
     <t>OK</t>
   </si>
   <si>
-    <t>Tạo bài viết mới trên website cảm nhận học viên bằng video</t>
-  </si>
-  <si>
-    <t>Thêm kênh Youtube vào footer trang web</t>
-  </si>
-  <si>
     <t>Lập Account Twitter, Instagram, LinkedIn, Pinterest, G+</t>
   </si>
   <si>
     <t>Mô tả của 2 mục ở homepage tuyển dụng doanh nghiệp, chiêu sinh đào tạo bị hư</t>
   </si>
   <si>
-    <t>Đọc sách Ebook mà thầy tặng kèm về SEO</t>
-  </si>
-  <si>
-    <t>Kiến nghị làm kênh Youtube upload và cho đăng các bài giảng</t>
-  </si>
-  <si>
-    <t>Chưa xong</t>
-  </si>
-  <si>
     <t>Thêm content cho thẻ meta description trên homepage như thế nào</t>
   </si>
   <si>
-    <t>Tải ảnh lên Drive: hội thảo với sv đại học cần thơ khoa công nghệ</t>
-  </si>
-  <si>
-    <t>Chọn ra những tấm đẹp nhất</t>
-  </si>
-  <si>
-    <t>Chỉnh sáng tối các tấm ảnh</t>
-  </si>
-  <si>
-    <t>Up lên Slider</t>
-  </si>
-  <si>
-    <t>Thêm Video sáng nay vào mục hoạt động công ty trong menu tin tức</t>
-  </si>
-  <si>
-    <t>Thêm 2 video cảm nghĩ học viên vào mục hoạt động công ty</t>
-  </si>
-  <si>
     <t>Cty bên quản trị mạng sử dụng hệ điều hành gì</t>
-  </si>
-  <si>
-    <t>Tải ảnh xuống máy tính từ Drive hội thảo với sv đại học Cần Thơ khoa công nghệ</t>
-  </si>
-  <si>
-    <t>Tải video lên youtube</t>
-  </si>
-  <si>
-    <t>Thêm menu tin "hoạt động công ty" vào mục tin tức</t>
-  </si>
-  <si>
-    <t>Sửa lại Homepage chữ Lĩnh vực hoạt động thành Hoạt động Công ty rồi đưa những bài có liên quan lên</t>
-  </si>
-  <si>
-    <t>Thời gian có thể đưa bạn Thành qua bên cty kia để làm</t>
-  </si>
-  <si>
-    <t>Đồng nghiệp</t>
-  </si>
-  <si>
-    <t>Thêm logo các trường đại học</t>
   </si>
   <si>
     <t>Mũi tên trên slider của website mobile bỏ đi</t>
@@ -328,6 +256,48 @@
   </si>
   <si>
     <t>Đăng tin trên các trang đăng tuyển việc làm</t>
+  </si>
+  <si>
+    <t>Gửi thông tin tuyển dụng cho Danh Giận trên Messenger</t>
+  </si>
+  <si>
+    <t>Tên Đồng Nghiệp</t>
+  </si>
+  <si>
+    <t>Phòng</t>
+  </si>
+  <si>
+    <t>Loại công việc</t>
+  </si>
+  <si>
+    <t>Ngân</t>
+  </si>
+  <si>
+    <t>Vụ</t>
+  </si>
+  <si>
+    <t>TD-CS</t>
+  </si>
+  <si>
+    <t>HCNS</t>
+  </si>
+  <si>
+    <t>Đưa nội dung tài liệu về dạy học lên gg drive</t>
+  </si>
+  <si>
+    <t>Nêu những câu hỏi của cac ban sv trong video dài</t>
+  </si>
+  <si>
+    <t>Đăng tin lên các group được thông báo trong notification</t>
+  </si>
+  <si>
+    <t>Học bài SEO trong folder SEO</t>
+  </si>
+  <si>
+    <t>Kiểm tra xem Tuấn nhắc kỹ thuật đã làm hết chưa</t>
+  </si>
+  <si>
+    <t>Nêu nội dung clip trong video ngắn</t>
   </si>
 </sst>
 </file>
@@ -413,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -523,9 +493,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -838,11 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,7 +822,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -867,265 +833,258 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(B3="", "", SUBTOTAL(3,$B3:B$3))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(B4="", "", SUBTOTAL(3,$B$3:B4))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="34"/>
     </row>
-    <row r="5" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(B5="", "", SUBTOTAL(3,$B$3:B5))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="34"/>
     </row>
-    <row r="6" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(B6="", "", SUBTOTAL(3,$B$3:B6))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(B7="", "", SUBTOTAL(3,$B$3:B7))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="20"/>
     </row>
-    <row r="8" spans="1:6" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(B8="", "", SUBTOTAL(3,$B$3:B8))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(B9="", "", SUBTOTAL(3,$B$3:B9))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>8</v>
-      </c>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(B10="", "", SUBTOTAL(3,$B$3:B10))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(B11="", "", SUBTOTAL(3,$B$3:B11))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:6" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(B12="", "", SUBTOTAL(3,$B$3:B12))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:6" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(B13="", "", SUBTOTAL(3,$B$3:B13))</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="1:6" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(B14="", "", SUBTOTAL(3,$B$3:B14))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:6" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(B15="", "", SUBTOTAL(3,$B$3:B15))</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:6" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(B16="", "", SUBTOTAL(3,$B$3:B16))</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="7" t="str">
         <f>IF(B17="", "", SUBTOTAL(3,$B$3:B17))</f>
-        <v>1</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B17" s="12"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="11" t="s">
-        <v>74</v>
-      </c>
+      <c r="D17" s="11"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:5" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="str">
-        <f>IF(B18="", "", SUBTOTAL(3,$B$3:B18))</f>
-        <v/>
-      </c>
+    <row r="18" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
       <c r="B18" s="12"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1159,7 +1118,7 @@
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="11"/>
@@ -1174,18 +1133,15 @@
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="17"/>
     </row>
     <row r="28" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
@@ -1196,8 +1152,7 @@
       <c r="B29" s="17"/>
     </row>
     <row r="30" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="17"/>
+      <c r="B30" s="14"/>
     </row>
     <row r="31" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="14"/>
@@ -1223,7 +1178,7 @@
     <row r="38" spans="2:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="14"/>
     </row>
-    <row r="39" spans="2:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="14"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
@@ -1241,17 +1196,8 @@
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="14"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="14"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:F18">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Chưa xong"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:F17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1259,24 +1205,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1284,56 +1237,83 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1364,133 +1344,13 @@
     <row r="32" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="A2:G4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D27"/>
@@ -1520,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1529,10 +1389,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1541,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1553,10 +1413,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1565,10 +1425,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1577,10 +1437,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1589,10 +1449,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1601,10 +1461,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1613,10 +1473,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1625,10 +1485,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1661,10 +1521,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1697,10 +1557,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="5"/>
     </row>
@@ -1777,19 +1637,211 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="56" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26">
+        <f>IF(B2="","",SUBTOTAL(3,$B$2:B2))</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <f>IF(B3="","",SUBTOTAL(3,$B$2:B3))</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
+        <f>IF(B4="","",SUBTOTAL(3,$B$2:B4))</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
+        <f>IF(B5="","",SUBTOTAL(3,$B$2:B5))</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
+        <f>IF(B6="","",SUBTOTAL(3,$B$2:B6))</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <f>IF(B7="","",SUBTOTAL(3,$B$2:B7))</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <f>IF(B8="","",SUBTOTAL(3,$B$2:B8))</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="str">
+        <f>IF(B9="","",SUBTOTAL(3,$B$2:B9))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="str">
+        <f>IF(B10="","",SUBTOTAL(3,$B$2:B10))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <autoFilter ref="A1:D10"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="47" style="14" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
@@ -1807,70 +1859,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <f>IF(B2="","",SUBTOTAL(3,$B$2:B2))</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="39">
-        <v>1</v>
-      </c>
-      <c r="E2" s="27"/>
+        <v>0</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="38">
+        <v>1</v>
+      </c>
+      <c r="E2" s="35"/>
       <c r="F2" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <f>IF(B3="","",SUBTOTAL(3,$B$2:B3))</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="39">
-        <v>1</v>
-      </c>
-      <c r="E3" s="27"/>
+        <v>1</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="38">
+        <v>1</v>
+      </c>
+      <c r="E3" s="35"/>
       <c r="F3" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <f>IF(B4="","",SUBTOTAL(3,$B$2:B4))</f>
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="39">
-        <v>1</v>
-      </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35" t="s">
-        <v>48</v>
+      <c r="B4" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1878,290 +1930,138 @@
         <f>IF(B5="","",SUBTOTAL(3,$B$2:B5))</f>
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="39">
-        <v>1</v>
-      </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <f>IF(B6="","",SUBTOTAL(3,$B$2:B6))</f>
-        <v>2</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="37" t="s">
-        <v>56</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>22</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="str">
         <f>IF(B7="","",SUBTOTAL(3,$B$2:B7))</f>
-        <v>2</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+        <v/>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="str">
         <f>IF(B8="","",SUBTOTAL(3,$B$2:B8))</f>
-        <v>3</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
+        <v/>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="str">
         <f>IF(B9="","",SUBTOTAL(3,$B$2:B9))</f>
-        <v>4</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+        <v/>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="str">
         <f>IF(B10="","",SUBTOTAL(3,$B$2:B10))</f>
-        <v>4</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+        <v/>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="str">
         <f>IF(B11="","",SUBTOTAL(3,$B$2:B11))</f>
-        <v>4</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
+        <v/>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="str">
         <f>IF(B12="","",SUBTOTAL(3,$B$2:B12))</f>
-        <v>5</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="str">
         <f>IF(B13="","",SUBTOTAL(3,$B$2:B13))</f>
-        <v>6</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="str">
         <f>IF(B14="","",SUBTOTAL(3,$B$2:B14))</f>
-        <v>7</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="str">
         <f>IF(B15="","",SUBTOTAL(3,$B$2:B15))</f>
-        <v>8</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="str">
         <f>IF(B16="","",SUBTOTAL(3,$B$2:B16))</f>
-        <v>9</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="str">
         <f>IF(B17="","",SUBTOTAL(3,$B$2:B17))</f>
-        <v>10</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="str">
         <f>IF(B18="","",SUBTOTAL(3,$B$2:B18))</f>
-        <v>11</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26">
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="str">
         <f>IF(B19="","",SUBTOTAL(3,$B$2:B19))</f>
-        <v>12</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="str">
         <f>IF(B20="","",SUBTOTAL(3,$B$2:B20))</f>
-        <v>13</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26">
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="str">
         <f>IF(B21="","",SUBTOTAL(3,$B$2:B21))</f>
-        <v>14</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="str">
         <f>IF(B22="","",SUBTOTAL(3,$B$2:B22))</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26">
+    <row r="23" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="str">
         <f>IF(B23="","",SUBTOTAL(3,$B$2:B23))</f>
-        <v>15</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>44</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -2169,125 +2069,63 @@
         <f>IF(B24="","",SUBTOTAL(3,$B$2:B24))</f>
         <v/>
       </c>
-      <c r="B24" s="18"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="str">
+    </row>
+    <row r="25" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
         <f>IF(B25="","",SUBTOTAL(3,$B$2:B25))</f>
-        <v/>
-      </c>
-      <c r="B25" s="18"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="str">
         <f>IF(B26="","",SUBTOTAL(3,$B$2:B26))</f>
         <v/>
       </c>
-      <c r="B26" s="18"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="str">
         <f>IF(B27="","",SUBTOTAL(3,$B$2:B27))</f>
         <v/>
       </c>
-      <c r="B27" s="18"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="str">
         <f>IF(B28="","",SUBTOTAL(3,$B$2:B28))</f>
         <v/>
       </c>
-      <c r="B28" s="18"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="str">
         <f>IF(B29="","",SUBTOTAL(3,$B$2:B29))</f>
         <v/>
       </c>
-      <c r="B29" s="18"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="str">
         <f>IF(B30="","",SUBTOTAL(3,$B$2:B30))</f>
         <v/>
       </c>
-      <c r="B30" s="18"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="str">
         <f>IF(B31="","",SUBTOTAL(3,$B$2:B31))</f>
         <v/>
       </c>
-      <c r="B31" s="18"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="str">
-        <f>IF(B32="","",SUBTOTAL(3,$B$2:B32))</f>
-        <v/>
-      </c>
-      <c r="B32" s="18"/>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="str">
-        <f>IF(B33="","",SUBTOTAL(3,$B$2:B33))</f>
-        <v/>
-      </c>
-      <c r="B33" s="18"/>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="str">
-        <f>IF(B34="","",SUBTOTAL(3,$B$2:B34))</f>
-        <v/>
-      </c>
-      <c r="B34" s="18"/>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="str">
-        <f>IF(B35="","",SUBTOTAL(3,$B$2:B35))</f>
-        <v/>
-      </c>
-      <c r="B35" s="18"/>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="str">
-        <f>IF(B36="","",SUBTOTAL(3,$B$2:B36))</f>
-        <v/>
-      </c>
-      <c r="B36" s="18"/>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="str">
-        <f>IF(B37="","",SUBTOTAL(3,$B$2:B37))</f>
-        <v/>
-      </c>
-      <c r="B37" s="18"/>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="str">
-        <f>IF(B38="","",SUBTOTAL(3,$B$2:B38))</f>
-        <v/>
-      </c>
-      <c r="B38" s="18"/>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="str">
-        <f>IF(B39="","",SUBTOTAL(3,$B$2:B39))</f>
-        <v/>
-      </c>
-      <c r="B39" s="18"/>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="str">
-        <f>IF(B40="","",SUBTOTAL(3,$B$2:B40))</f>
-        <v/>
-      </c>
-      <c r="B40" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F40">
-    <filterColumn colId="5">
+  <autoFilter ref="A1:F24">
+    <filterColumn colId="2">
       <filters>
-        <filter val="Khẩn cấp - Quan trọng"/>
+        <filter val="Đang làm"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2297,135 +2135,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
-        <f>IF(B2="","",SUBTOTAL(3,$B$2:B2))</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="29">
-        <v>1</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
-        <f>IF(B3="","",SUBTOTAL(3,$B$2:B3))</f>
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
-        <f>IF(B4="","",SUBTOTAL(3,$B$2:B4))</f>
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
-        <f>IF(B5="","",SUBTOTAL(3,$B$2:B5))</f>
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
-        <f>IF(B6="","",SUBTOTAL(3,$B$2:B6))</f>
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="str">
-        <f>IF(B7="","",SUBTOTAL(3,$B$2:B7))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="str">
-        <f>IF(B8="","",SUBTOTAL(3,$B$2:B8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="str">
-        <f>IF(B9="","",SUBTOTAL(3,$B$2:B9))</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2448,188 +2162,205 @@
         <v>2</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <f>IF(B2="","",SUBTOTAL(3,$B$2:B2))</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>51</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D2" s="29">
         <v>1</v>
       </c>
       <c r="E2" s="27"/>
       <c r="F2" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <f>IF(B3="","",SUBTOTAL(3,$B$2:B3))</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>52</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="27"/>
       <c r="F3" s="35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <f>IF(B4="","",SUBTOTAL(3,$B$2:B4))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="27"/>
       <c r="F4" s="35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <f>IF(B5="","",SUBTOTAL(3,$B$2:B5))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
       <c r="F5" s="35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <f>IF(B6="","",SUBTOTAL(3,$B$2:B6))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <f>IF(B7="","",SUBTOTAL(3,$B$2:B7))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>92</v>
+        <v>67</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>22</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="str">
+      <c r="A8" s="26">
         <f>IF(B8="","",SUBTOTAL(3,$B$2:B8))</f>
-        <v/>
-      </c>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="str">
         <f>IF(B9="","",SUBTOTAL(3,$B$2:B9))</f>
         <v/>
       </c>
+      <c r="B9" s="1"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="str">
         <f>IF(B10="","",SUBTOTAL(3,$B$2:B10))</f>
         <v/>
       </c>
+      <c r="B10" s="18"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="str">
         <f>IF(B11="","",SUBTOTAL(3,$B$2:B11))</f>
         <v/>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="1"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="str">
         <f>IF(B12="","",SUBTOTAL(3,$B$2:B12))</f>
         <v/>
       </c>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="str">
         <f>IF(B13="","",SUBTOTAL(3,$B$2:B13))</f>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="str">
         <f>IF(B14="","",SUBTOTAL(3,$B$2:B14))</f>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="str">
         <f>IF(B15="","",SUBTOTAL(3,$B$2:B15))</f>
         <v/>
       </c>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="str">
-        <f>IF(B16="","",SUBTOTAL(3,$B$2:B16))</f>
-        <v/>
-      </c>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="A1:F15">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Đang làm"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2650,19 +2381,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2671,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="29"/>
@@ -2680,9 +2411,12 @@
       <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="str">
+      <c r="A3" s="26">
         <f>IF(B3="","",SUBTOTAL(3,$B$2:B3))</f>
-        <v/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2690,115 +2424,148 @@
         <f>IF(B4="","",SUBTOTAL(3,$B$2:B4))</f>
         <v/>
       </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="str">
         <f>IF(B5="","",SUBTOTAL(3,$B$2:B5))</f>
         <v/>
       </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="str">
         <f>IF(B6="","",SUBTOTAL(3,$B$2:B6))</f>
         <v/>
       </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="str">
         <f>IF(B7="","",SUBTOTAL(3,$B$2:B7))</f>
         <v/>
       </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="str">
         <f>IF(B8="","",SUBTOTAL(3,$B$2:B8))</f>
         <v/>
       </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="str">
         <f>IF(B9="","",SUBTOTAL(3,$B$2:B9))</f>
         <v/>
       </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="str">
         <f>IF(B10="","",SUBTOTAL(3,$B$2:B10))</f>
         <v/>
       </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="str">
         <f>IF(B11="","",SUBTOTAL(3,$B$2:B11))</f>
         <v/>
       </c>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="str">
         <f>IF(B12="","",SUBTOTAL(3,$B$2:B12))</f>
         <v/>
       </c>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="str">
         <f>IF(B13="","",SUBTOTAL(3,$B$2:B13))</f>
         <v/>
       </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="str">
         <f>IF(B14="","",SUBTOTAL(3,$B$2:B14))</f>
         <v/>
       </c>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="str">
         <f>IF(B15="","",SUBTOTAL(3,$B$2:B15))</f>
         <v/>
       </c>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="str">
         <f>IF(B16="","",SUBTOTAL(3,$B$2:B16))</f>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="str">
         <f>IF(B17="","",SUBTOTAL(3,$B$2:B17))</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="str">
         <f>IF(B18="","",SUBTOTAL(3,$B$2:B18))</f>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="str">
         <f>IF(B19="","",SUBTOTAL(3,$B$2:B19))</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="str">
         <f>IF(B20="","",SUBTOTAL(3,$B$2:B20))</f>
         <v/>
       </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G20"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2816,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2825,10 +2592,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2837,10 +2604,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2849,10 +2616,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2861,10 +2628,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2872,11 +2639,11 @@
         <f>IF(B6="","",SUBTOTAL(3,$B$2:B6))</f>
         <v>2</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>91</v>
+      <c r="B6" s="40" t="s">
+        <v>66</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Todo - List Dragon Gold.xlsx
+++ b/Todo - List Dragon Gold.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="345" windowWidth="19920" windowHeight="7725"/>
+    <workbookView xWindow="360" yWindow="345" windowWidth="19920" windowHeight="7725" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sep" sheetId="5" r:id="rId1"/>
@@ -16,24 +16,26 @@
     <sheet name="Marketing" sheetId="14" r:id="rId7"/>
     <sheet name="Day hoc" sheetId="15" r:id="rId8"/>
     <sheet name="Học thêm" sheetId="17" r:id="rId9"/>
+    <sheet name="Chua phan loai" sheetId="20" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Chua phan loai'!$A$1:$C$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Day hoc'!$A$1:$G$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Dong Nghiep'!$A$2:$C$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Học thêm'!$A$1:$C$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Marketing!$A$1:$F$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'P. Kinh Doanh'!$A$1:$D$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sep!$A$2:$F$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Marketing!$A$1:$F$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'P. Kinh Doanh'!$A$1:$D$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sep!$A$2:$F$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Tim hoc vien'!$A$1:$D$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tuan - web'!$A$2:$C$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Website!$A$1:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Website!$A$1:$F$12</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="93">
   <si>
     <t>STT</t>
   </si>
@@ -159,9 +161,6 @@
   </si>
   <si>
     <t>Nghe lại bài giải đáp thắc mắc của Sếp với sinh viên khoa công nghệ ĐHCT, sau đó note ra nội dung và nội dung đó nằm ở phút thứ mấy</t>
-  </si>
-  <si>
-    <t>Đăng tin trên group đã accept mình</t>
   </si>
   <si>
     <t>Đăng tin tuyển dụng trên FB cá nhân, fanpage công ty
@@ -182,40 +181,7 @@
     <t>Tên Đồng Nghiệp</t>
   </si>
   <si>
-    <t>Đưa nội dung tài liệu về dạy học lên gg drive</t>
-  </si>
-  <si>
-    <t>Đăng tin lên các group được thông báo trong notification</t>
-  </si>
-  <si>
     <t>Kiểm tra xem Tuấn nhắc kỹ thuật đã làm hết chưa</t>
-  </si>
-  <si>
-    <t>Nêu nội dung clip trong video ngắn</t>
-  </si>
-  <si>
-    <t>Nghiên cứu đăng tin tuyển dụng kiểu mới</t>
-  </si>
-  <si>
-    <t>Tạo group trên fb</t>
-  </si>
-  <si>
-    <t>Add các bạn là học viên vào</t>
-  </si>
-  <si>
-    <t>Thêm Logo của Việt Thành</t>
-  </si>
-  <si>
-    <t>Hỏi Huyền</t>
-  </si>
-  <si>
-    <t>Chổ menu tuyển dụng thêm 2 mục: trong nước, ngoài nước</t>
-  </si>
-  <si>
-    <t>Thêm category trong nước vào tất cả các bài post của mục tuyển dụng</t>
-  </si>
-  <si>
-    <t>Thêm menu cấp 2, những lĩnh vực của doanh nghiệp nào ký hợp đồng thì thêm vào menu cấp 2</t>
   </si>
   <si>
     <t>Nắm thông tin các bạn học viên đang học</t>
@@ -288,9 +254,6 @@
     <t>Nói với Sếp có bạn Thảo tới gặp</t>
   </si>
   <si>
-    <t>Không có logo</t>
-  </si>
-  <si>
     <t>Có tuyển bên may không?</t>
   </si>
   <si>
@@ -298,6 +261,63 @@
   </si>
   <si>
     <t>Đang hỏi</t>
+  </si>
+  <si>
+    <t>Nói vụ bạn Thành</t>
+  </si>
+  <si>
+    <t>Đưa 2 bạn Ngọc, Yến lên gặp Sếp</t>
+  </si>
+  <si>
+    <t>Báo cáo vụ Andes</t>
+  </si>
+  <si>
+    <t>Làm trình dược</t>
+  </si>
+  <si>
+    <t>Học vào buổi sáng</t>
+  </si>
+  <si>
+    <t>Đưa nội dung các vị trí tuyển dụng vào các bài post của chuyên mục khối ngành</t>
+  </si>
+  <si>
+    <t>Gõ buổi tối</t>
+  </si>
+  <si>
+    <t>Đang gửi Postcard</t>
+  </si>
+  <si>
+    <t>Lên chụp bảng các vị trí đang tuyển trên phòng Sếp</t>
+  </si>
+  <si>
+    <t>Bổ sung nội dung website theo yêu cầu của Sếp</t>
+  </si>
+  <si>
+    <t>Hỏi Sếp về trường hợp bạn Mỹ Hạnh</t>
+  </si>
+  <si>
+    <t>Hỏi thêm menu con Sau khoá học, Khi đi làm làm menu con của Video cảm nghĩ học viên</t>
+  </si>
+  <si>
+    <t>Có nên đưa thông tin các bạn học viên đang ở vị trí nào lên group Zalo DRAGON GOLD</t>
+  </si>
+  <si>
+    <t>Những khó khăn khi theo học lớp học "Làm thế nào để đi làm thành công"</t>
+  </si>
+  <si>
+    <t>Thêm ảnh minh hoạ vào nội dung bài viết Sứ mệnh, tầm nhìn, giá trị cốt lõi</t>
+  </si>
+  <si>
+    <t>Cập nhật lại nội dung bài tuyển dụng trên canthoinfo.com</t>
+  </si>
+  <si>
+    <t>Tìm hiểu cách đăng bài giảng lên Google Lớp học</t>
+  </si>
+  <si>
+    <t>Chuyển hướng đăng tin chi tiết lên trang canthoinfo.</t>
+  </si>
+  <si>
+    <t>Làm Google biểu mẫu để tự đồng điền khi đăng ký trên các trang tìm việc làm</t>
   </si>
 </sst>
 </file>
@@ -418,9 +438,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -485,6 +502,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -790,8 +810,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +819,7 @@
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
     <col min="2" max="2" width="94.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.140625" customWidth="1"/>
   </cols>
@@ -822,7 +842,7 @@
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -835,12 +855,12 @@
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="10"/>
@@ -851,12 +871,12 @@
         <v>0</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="10"/>
@@ -867,12 +887,12 @@
         <v>0</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="10"/>
@@ -883,12 +903,12 @@
         <v>0</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="10"/>
@@ -899,123 +919,187 @@
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>81</v>
+        <v>68</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(B8="", "", SUBTOTAL(3,$B$3:B10))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(B9="", "", SUBTOTAL(3,$B$3:B9))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
-        <v>86</v>
+        <v>71</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(B10="", "", SUBTOTAL(3,$B$3:B10))</f>
+        <v>0</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <f>IF(B11="", "", SUBTOTAL(3,$B$3:B11))</f>
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <f>IF(B12="", "", SUBTOTAL(3,$B$3:B12))</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <f>IF(B13="", "", SUBTOTAL(3,$B$3:B13))</f>
+        <v>1</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <f>IF(B14="", "", SUBTOTAL(3,$B$3:B14))</f>
         <v>2</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B14" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <f>IF(B15="", "", SUBTOTAL(3,$B$3:B15))</f>
+        <v>3</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <f>IF(B16="", "", SUBTOTAL(3,$B$3:B16))</f>
+        <v>4</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="str">
-        <f>IF(B12="", "", SUBTOTAL(3,$B$3:B12))</f>
-        <v/>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="str">
-        <f>IF(B13="", "", SUBTOTAL(3,$B$3:B13))</f>
-        <v/>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-    </row>
-    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-    </row>
-    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-    </row>
-    <row r="17" spans="2:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-    </row>
-    <row r="18" spans="2:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-    </row>
-    <row r="19" spans="2:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-    </row>
-    <row r="20" spans="2:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
-    </row>
-    <row r="21" spans="2:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
-    </row>
-    <row r="22" spans="2:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="2:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F10">
+  <autoFilter ref="A2:F13">
     <filterColumn colId="3">
       <filters>
         <filter val="Đang hỏi"/>
@@ -1027,13 +1111,134 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="str">
+        <f>IF(B2="","",SUBTOTAL(3,$B$2:B2))</f>
+        <v/>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="str">
+        <f>IF(B3="","",SUBTOTAL(3,$B$2:B3))</f>
+        <v/>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <f>IF(B4="","",SUBTOTAL(3,$B$2:B4))</f>
+        <v>0</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <f>IF(B5="","",SUBTOTAL(3,$B$2:B5))</f>
+        <v>0</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="str">
+        <f>IF(B6="","",SUBTOTAL(3,$B$2:B6))</f>
+        <v/>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C6">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Đang làm"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,10 +1249,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="17"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1283,9 +1488,11 @@
         <v>3</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1294,9 +1501,11 @@
         <v>4</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1329,7 +1538,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,9 +1562,9 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="34" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1368,13 +1577,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -1386,10 +1595,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
@@ -1473,7 +1682,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -1488,111 +1697,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <f>IF(B2="","",SUBTOTAL(3,$B$2:B2))</f>
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>61</v>
+      <c r="B2" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
         <f>IF(B3="","",SUBTOTAL(3,$B$2:B3))</f>
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="25"/>
+      <c r="B3" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <f>IF(B4="","",SUBTOTAL(3,$B$2:B4))</f>
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="25"/>
+      <c r="B4" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="str">
+      <c r="A5" s="20">
         <f>IF(B5="","",SUBTOTAL(3,$B$2:B5))</f>
-        <v/>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="str">
+      <c r="A6" s="20" t="str">
         <f>IF(B6="","",SUBTOTAL(3,$B$2:B6))</f>
         <v/>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="str">
+      <c r="A7" s="20" t="str">
         <f>IF(B7="","",SUBTOTAL(3,$B$2:B7))</f>
         <v/>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="str">
+      <c r="A8" s="20" t="str">
         <f>IF(B8="","",SUBTOTAL(3,$B$2:B8))</f>
         <v/>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="str">
+      <c r="A9" s="20" t="str">
         <f>IF(B9="","",SUBTOTAL(3,$B$2:B9))</f>
         <v/>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="str">
+      <c r="A10" s="20" t="str">
         <f>IF(B10="","",SUBTOTAL(3,$B$2:B10))</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="str">
-        <f>IF(B11="","",SUBTOTAL(3,$B$2:B11))</f>
-        <v/>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -1618,9 +1827,7 @@
     <row r="19" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-    </row>
+    <row r="20" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1632,9 +1839,8 @@
     <row r="29" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:D11"/>
+  <autoFilter ref="A1:D10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1644,8 +1850,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,118 +1863,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <f>IF(B2="","",SUBTOTAL(3,$B$2:B2))</f>
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="25"/>
-    </row>
-    <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
         <f>IF(B3="","",SUBTOTAL(3,$B$2:B3))</f>
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:4" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="D3" s="24"/>
+    </row>
+    <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
         <f>IF(B4="","",SUBTOTAL(3,$B$2:B4))</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
         <f>IF(B5="","",SUBTOTAL(3,$B$2:B5))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <f>IF(B6="","",SUBTOTAL(3,$B$2:B6))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <f>IF(B7="","",SUBTOTAL(3,$B$2:B7))</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="25"/>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
-        <f>IF(B7="","",SUBTOTAL(3,$B$2:B7))</f>
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <f>IF(B8="","",SUBTOTAL(3,$B$2:B8))</f>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="25"/>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
-        <f>IF(B8="","",SUBTOTAL(3,$B$2:B8))</f>
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="25"/>
+      <c r="C8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="str">
+      <c r="A9" s="20" t="str">
         <f>IF(B9="","",SUBTOTAL(3,$B$2:B9))</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="str">
+      <c r="A10" s="20" t="str">
         <f>IF(B10="","",SUBTOTAL(3,$B$2:B10))</f>
         <v/>
       </c>
@@ -1827,10 +2033,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,178 +2049,180 @@
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19" t="s">
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+    <row r="2" spans="1:5" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
         <f>IF(B2="","",SUBTOTAL(3,$B$2:B2))</f>
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <f>IF(B3="","",SUBTOTAL(3,$B$2:B3))</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <f>IF(B4="","",SUBTOTAL(3,$B$2:B4))</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
-        <f>IF(B3="","",SUBTOTAL(3,$B$2:B3))</f>
-        <v>1</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
-        <f>IF(B4="","",SUBTOTAL(3,$B$2:B4))</f>
-        <v>1</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+    <row r="5" spans="1:5" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
         <f>IF(B5="","",SUBTOTAL(3,$B$2:B5))</f>
-        <v>2</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
         <f>IF(B6="","",SUBTOTAL(3,$B$2:B6))</f>
         <v>2</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="B6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="str">
         <f>IF(B7="","",SUBTOTAL(3,$B$2:B7))</f>
-        <v>2</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="str">
         <f>IF(B8="","",SUBTOTAL(3,$B$2:B8))</f>
-        <v>2</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="str">
         <f>IF(B9="","",SUBTOTAL(3,$B$2:B9))</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="str">
+    <row r="10" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="str">
         <f>IF(B10="","",SUBTOTAL(3,$B$2:B10))</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="str">
+    <row r="11" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="str">
         <f>IF(B11="","",SUBTOTAL(3,$B$2:B11))</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="str">
+    <row r="12" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="str">
         <f>IF(B12="","",SUBTOTAL(3,$B$2:B12))</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="str">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
         <f>IF(B13="","",SUBTOTAL(3,$B$2:B13))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="str">
+        <v>3</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="str">
         <f>IF(B14="","",SUBTOTAL(3,$B$2:B14))</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="str">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="str">
         <f>IF(B15="","",SUBTOTAL(3,$B$2:B15))</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="str">
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="str">
         <f>IF(B16="","",SUBTOTAL(3,$B$2:B16))</f>
         <v/>
       </c>
     </row>
+    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="str">
+        <f>IF(B17="","",SUBTOTAL(3,$B$2:B17))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="str">
+        <f>IF(B18="","",SUBTOTAL(3,$B$2:B18))</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E16">
+  <autoFilter ref="A1:F12">
     <filterColumn colId="2">
       <filters>
         <filter val="Đang làm"/>
@@ -2028,10 +2236,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2045,228 +2253,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <f>IF(B2="","",SUBTOTAL(3,$B$2:B2))</f>
         <v>0</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="24">
-        <v>1</v>
-      </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="29" t="s">
+      <c r="D2" s="23">
+        <v>1</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="28" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
         <f>IF(B3="","",SUBTOTAL(3,$B$2:B3))</f>
         <v>0</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="29" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="28" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <f>IF(B4="","",SUBTOTAL(3,$B$2:B4))</f>
         <v>0</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="29" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="28" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <f>IF(B5="","",SUBTOTAL(3,$B$2:B5))</f>
         <v>0</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="29" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="28" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <f>IF(B6="","",SUBTOTAL(3,$B$2:B6))</f>
         <v>0</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <f>IF(B7="","",SUBTOTAL(3,$B$2:B7))</f>
         <v>1</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <f>IF(B8="","",SUBTOTAL(3,$B$2:B8))</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
-        <f>IF(B8="","",SUBTOTAL(3,$B$2:B8))</f>
-        <v>2</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="31" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+    <row r="9" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="str">
         <f>IF(B9="","",SUBTOTAL(3,$B$2:B9))</f>
-        <v>3</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+        <v/>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="str">
         <f>IF(B10="","",SUBTOTAL(3,$B$2:B10))</f>
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+        <v/>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="str">
         <f>IF(B11="","",SUBTOTAL(3,$B$2:B11))</f>
-        <v>5</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="13"/>
+        <v/>
+      </c>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="str">
+      <c r="A12" s="20" t="str">
         <f>IF(B12="","",SUBTOTAL(3,$B$2:B12))</f>
         <v/>
       </c>
       <c r="B12" s="1"/>
-      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="str">
+      <c r="A13" s="20" t="str">
         <f>IF(B13="","",SUBTOTAL(3,$B$2:B13))</f>
         <v/>
       </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="str">
-        <f>IF(B14="","",SUBTOTAL(3,$B$2:B14))</f>
-        <v/>
-      </c>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="str">
-        <f>IF(B15="","",SUBTOTAL(3,$B$2:B15))</f>
-        <v/>
-      </c>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="str">
-        <f>IF(B16="","",SUBTOTAL(3,$B$2:B16))</f>
-        <v/>
-      </c>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:F16">
+  <autoFilter ref="A1:F13">
     <filterColumn colId="2">
       <filters>
         <filter val="Đang làm"/>
@@ -2282,13 +2449,13 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
@@ -2296,154 +2463,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <f>IF(B2="","",SUBTOTAL(3,$B$2:B2))</f>
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="str">
+      <c r="A3" s="20">
         <f>IF(B3="","",SUBTOTAL(3,$B$2:B3))</f>
-        <v/>
-      </c>
-      <c r="B3" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="str">
+      <c r="A4" s="20" t="str">
         <f>IF(B4="","",SUBTOTAL(3,$B$2:B4))</f>
         <v/>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="str">
+      <c r="A5" s="20" t="str">
         <f>IF(B5="","",SUBTOTAL(3,$B$2:B5))</f>
         <v/>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="str">
+      <c r="A6" s="20" t="str">
         <f>IF(B6="","",SUBTOTAL(3,$B$2:B6))</f>
         <v/>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="str">
+      <c r="A7" s="20" t="str">
         <f>IF(B7="","",SUBTOTAL(3,$B$2:B7))</f>
         <v/>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="str">
+      <c r="A8" s="20" t="str">
         <f>IF(B8="","",SUBTOTAL(3,$B$2:B8))</f>
         <v/>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="str">
+      <c r="A9" s="20" t="str">
         <f>IF(B9="","",SUBTOTAL(3,$B$2:B9))</f>
         <v/>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="str">
+      <c r="A10" s="20" t="str">
         <f>IF(B10="","",SUBTOTAL(3,$B$2:B10))</f>
         <v/>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="str">
+      <c r="A11" s="20" t="str">
         <f>IF(B11="","",SUBTOTAL(3,$B$2:B11))</f>
         <v/>
       </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="str">
+      <c r="A12" s="20" t="str">
         <f>IF(B12="","",SUBTOTAL(3,$B$2:B12))</f>
         <v/>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="str">
+      <c r="A13" s="20" t="str">
         <f>IF(B13="","",SUBTOTAL(3,$B$2:B13))</f>
         <v/>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="str">
+      <c r="A14" s="20" t="str">
         <f>IF(B14="","",SUBTOTAL(3,$B$2:B14))</f>
         <v/>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="str">
+      <c r="A15" s="20" t="str">
         <f>IF(B15="","",SUBTOTAL(3,$B$2:B15))</f>
         <v/>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="str">
+      <c r="A16" s="20" t="str">
         <f>IF(B16="","",SUBTOTAL(3,$B$2:B16))</f>
         <v/>
       </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="str">
+      <c r="A17" s="20" t="str">
         <f>IF(B17="","",SUBTOTAL(3,$B$2:B17))</f>
         <v/>
       </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="str">
+      <c r="A18" s="20" t="str">
         <f>IF(B18="","",SUBTOTAL(3,$B$2:B18))</f>
         <v/>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="str">
+      <c r="A19" s="20" t="str">
         <f>IF(B19="","",SUBTOTAL(3,$B$2:B19))</f>
         <v/>
       </c>
@@ -2473,10 +2640,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2484,84 +2651,119 @@
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+      <c r="D1" s="37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
         <f>IF(B2="","",SUBTOTAL(3,$B$2:B2))</f>
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="D2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
         <f>IF(B3="","",SUBTOTAL(3,$B$2:B3))</f>
-        <v>1</v>
-      </c>
-      <c r="B3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <f>IF(B4="","",SUBTOTAL(3,$B$2:B4))</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
-        <f>IF(B4="","",SUBTOTAL(3,$B$2:B4))</f>
-        <v>1</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="24" t="s">
+    <row r="5" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <f>IF(B5="","",SUBTOTAL(3,$B$2:B5))</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
-        <f>IF(B5="","",SUBTOTAL(3,$B$2:B5))</f>
-        <v>1</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
         <f>IF(B6="","",SUBTOTAL(3,$B$2:B6))</f>
-        <v>2</v>
-      </c>
-      <c r="B6" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D6" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C6">
     <filterColumn colId="2">
